--- a/data/trans_orig/P1435-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1435-Habitat-trans_orig.xlsx
@@ -624,19 +624,19 @@
         <v>27563</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>19174</v>
+        <v>18472</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>38854</v>
+        <v>38131</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04004198683483282</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02785491861303281</v>
+        <v>0.02683509418120928</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05644513108610039</v>
+        <v>0.05539402775611998</v>
       </c>
     </row>
     <row r="5">
@@ -653,19 +653,19 @@
         <v>660788</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>649497</v>
+        <v>650220</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>669177</v>
+        <v>669879</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9599580131651672</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9435548689138996</v>
+        <v>0.9446059722438803</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9721450813869672</v>
+        <v>0.9731649058187907</v>
       </c>
     </row>
     <row r="6">
@@ -715,19 +715,19 @@
         <v>48527</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>35828</v>
+        <v>35653</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>64200</v>
+        <v>65777</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05011076507872421</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03699742882929732</v>
+        <v>0.03681698266891153</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06629497331173524</v>
+        <v>0.06792359196256242</v>
       </c>
     </row>
     <row r="8">
@@ -744,19 +744,19 @@
         <v>919866</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>904193</v>
+        <v>902616</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>932565</v>
+        <v>932740</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9498892349212757</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9337050266882648</v>
+        <v>0.9320764080374376</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9630025711707026</v>
+        <v>0.9631830173310887</v>
       </c>
     </row>
     <row r="9">
@@ -806,19 +806,19 @@
         <v>82149</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>67422</v>
+        <v>66650</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>100751</v>
+        <v>98272</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1201290192304337</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09859250817998562</v>
+        <v>0.09746475716052544</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1473304737673248</v>
+        <v>0.1437053894008407</v>
       </c>
     </row>
     <row r="11">
@@ -835,19 +835,19 @@
         <v>601692</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>583090</v>
+        <v>585569</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>616419</v>
+        <v>617191</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8798709807695663</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8526695262326753</v>
+        <v>0.8562946105991592</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9014074918200148</v>
+        <v>0.9025352428394746</v>
       </c>
     </row>
     <row r="12">
@@ -897,19 +897,19 @@
         <v>101907</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>83307</v>
+        <v>84369</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>124294</v>
+        <v>122368</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09811853567444817</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08020981817899314</v>
+        <v>0.08123198053933263</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1196731675922712</v>
+        <v>0.1178184924046779</v>
       </c>
     </row>
     <row r="14">
@@ -926,19 +926,19 @@
         <v>936705</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>914318</v>
+        <v>916244</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>955305</v>
+        <v>954243</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9018814643255518</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8803268324077288</v>
+        <v>0.8821815075953221</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9197901818210069</v>
+        <v>0.9187680194606674</v>
       </c>
     </row>
     <row r="15">
@@ -988,19 +988,19 @@
         <v>260146</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>228586</v>
+        <v>230740</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>290272</v>
+        <v>293342</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07698458953858449</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06764500949734679</v>
+        <v>0.06828254962595506</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08589958562016063</v>
+        <v>0.08680813227985446</v>
       </c>
     </row>
     <row r="17">
@@ -1017,19 +1017,19 @@
         <v>3119051</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3088925</v>
+        <v>3085855</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3150611</v>
+        <v>3148457</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9230154104614156</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9141004143798394</v>
+        <v>0.9131918677201458</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9323549905026531</v>
+        <v>0.931717450374045</v>
       </c>
     </row>
     <row r="18">
@@ -1197,19 +1197,19 @@
         <v>23793</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>15165</v>
+        <v>15093</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>35450</v>
+        <v>34975</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0341333320764554</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02175538443526713</v>
+        <v>0.02165313930675159</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05085662356074165</v>
+        <v>0.05017513524157453</v>
       </c>
     </row>
     <row r="5">
@@ -1226,19 +1226,19 @@
         <v>673257</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>661600</v>
+        <v>662075</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>681885</v>
+        <v>681957</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9658666679235446</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9491433764392584</v>
+        <v>0.9498248647584256</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9782446155647329</v>
+        <v>0.9783468606932485</v>
       </c>
     </row>
     <row r="6">
@@ -1288,19 +1288,19 @@
         <v>35122</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>24318</v>
+        <v>24349</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>48652</v>
+        <v>48280</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03413301834356988</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02363351926037667</v>
+        <v>0.02366303400189744</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04728203993945972</v>
+        <v>0.04692053063878049</v>
       </c>
     </row>
     <row r="8">
@@ -1317,19 +1317,19 @@
         <v>993851</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>980321</v>
+        <v>980693</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1004655</v>
+        <v>1004624</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9658669816564301</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9527179600605407</v>
+        <v>0.95307946936122</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9763664807396242</v>
+        <v>0.9763369659981027</v>
       </c>
     </row>
     <row r="9">
@@ -1379,19 +1379,19 @@
         <v>42323</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>31220</v>
+        <v>31024</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>57724</v>
+        <v>57225</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05445800884647156</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0401713309819245</v>
+        <v>0.03991924392020527</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07427385490377077</v>
+        <v>0.07363222906552393</v>
       </c>
     </row>
     <row r="11">
@@ -1408,19 +1408,19 @@
         <v>734851</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>719450</v>
+        <v>719949</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>745954</v>
+        <v>746150</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9455419911535284</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.925726145096229</v>
+        <v>0.9263677709344761</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9598286690180755</v>
+        <v>0.9600807560797947</v>
       </c>
     </row>
     <row r="12">
@@ -1470,19 +1470,19 @@
         <v>36171</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>25166</v>
+        <v>25740</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>49717</v>
+        <v>49218</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03438678067249008</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02392449568400944</v>
+        <v>0.02447016409760972</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04726364768438615</v>
+        <v>0.04678986547335998</v>
       </c>
     </row>
     <row r="14">
@@ -1499,19 +1499,19 @@
         <v>1015730</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1002184</v>
+        <v>1002683</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1026735</v>
+        <v>1026161</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9656132193275099</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9527363523156138</v>
+        <v>0.9532101345266399</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9760755043159904</v>
+        <v>0.9755298359023903</v>
       </c>
     </row>
     <row r="15">
@@ -1561,19 +1561,19 @@
         <v>137409</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>117447</v>
+        <v>113818</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>162576</v>
+        <v>162079</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03865137588288885</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03303629951640324</v>
+        <v>0.03201556469607927</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04573050022860073</v>
+        <v>0.04559053293270065</v>
       </c>
     </row>
     <row r="17">
@@ -1590,19 +1590,19 @@
         <v>3417689</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3392522</v>
+        <v>3393019</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3437651</v>
+        <v>3441280</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9613486241171112</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9542694997713991</v>
+        <v>0.9544094670672991</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9669637004835966</v>
+        <v>0.9679844353039206</v>
       </c>
     </row>
     <row r="18">
@@ -1770,19 +1770,19 @@
         <v>8687</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3772</v>
+        <v>4139</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>16247</v>
+        <v>16437</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01291108894017829</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.005605481592152915</v>
+        <v>0.00615181025074665</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02414767850770164</v>
+        <v>0.02442981597230312</v>
       </c>
     </row>
     <row r="5">
@@ -1799,19 +1799,19 @@
         <v>664152</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>656592</v>
+        <v>656402</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>669067</v>
+        <v>668700</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9870889110598217</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9758523214922983</v>
+        <v>0.9755701840276969</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.994394518407847</v>
+        <v>0.9938481897492533</v>
       </c>
     </row>
     <row r="6">
@@ -1861,19 +1861,19 @@
         <v>10409</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5611</v>
+        <v>5651</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>19215</v>
+        <v>18844</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.009980787486714717</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.005379946639298333</v>
+        <v>0.005418291791207121</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01842456764050754</v>
+        <v>0.01806858266697876</v>
       </c>
     </row>
     <row r="8">
@@ -1890,19 +1890,19 @@
         <v>1032504</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1023698</v>
+        <v>1024069</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1037302</v>
+        <v>1037262</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9900192125132853</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9815754323594923</v>
+        <v>0.9819314173330196</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9946200533607016</v>
+        <v>0.9945817082087928</v>
       </c>
     </row>
     <row r="9">
@@ -1952,19 +1952,19 @@
         <v>13059</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7217</v>
+        <v>7192</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>21713</v>
+        <v>21022</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01663521007412416</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.009192907920578605</v>
+        <v>0.009161780130566373</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02765968766869793</v>
+        <v>0.0267787890773079</v>
       </c>
     </row>
     <row r="11">
@@ -1981,19 +1981,19 @@
         <v>771952</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>763298</v>
+        <v>763989</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>777794</v>
+        <v>777819</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9833647899258758</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9723403123313022</v>
+        <v>0.9732212109226923</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9908070920794214</v>
+        <v>0.9908382198694339</v>
       </c>
     </row>
     <row r="12">
@@ -2043,19 +2043,19 @@
         <v>34233</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>24649</v>
+        <v>23723</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>47422</v>
+        <v>46974</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03279715043860372</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02361549843441633</v>
+        <v>0.02272767364597096</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0454329911336335</v>
+        <v>0.04500392718344236</v>
       </c>
     </row>
     <row r="14">
@@ -2072,19 +2072,19 @@
         <v>1009546</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>996357</v>
+        <v>996805</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1019130</v>
+        <v>1020056</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9672028495613962</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9545670088663665</v>
+        <v>0.9549960728165575</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9763845015655835</v>
+        <v>0.9772723263540289</v>
       </c>
     </row>
     <row r="15">
@@ -2134,19 +2134,19 @@
         <v>66388</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>51188</v>
+        <v>52184</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>83920</v>
+        <v>83238</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0187296347330903</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01444121707289562</v>
+        <v>0.01472226793829834</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0236758387175055</v>
+        <v>0.02348346981164601</v>
       </c>
     </row>
     <row r="17">
@@ -2163,19 +2163,19 @@
         <v>3478154</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3460622</v>
+        <v>3461304</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3493354</v>
+        <v>3492358</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9812703652669097</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9763241612824946</v>
+        <v>0.976516530188354</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9855587829271044</v>
+        <v>0.9852777320617018</v>
       </c>
     </row>
     <row r="18">
@@ -2343,19 +2343,19 @@
         <v>31424</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>22404</v>
+        <v>21446</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45822</v>
+        <v>45066</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0428864161017288</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03057625538298825</v>
+        <v>0.02926902637770898</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06253626631182362</v>
+        <v>0.06150525127573542</v>
       </c>
     </row>
     <row r="5">
@@ -2372,19 +2372,19 @@
         <v>701298</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>686900</v>
+        <v>687656</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>710318</v>
+        <v>711276</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9571135838982712</v>
+        <v>0.9571135838982711</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9374637336881763</v>
+        <v>0.9384947487242641</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9694237446170116</v>
+        <v>0.9707309736222905</v>
       </c>
     </row>
     <row r="6">
@@ -2434,19 +2434,19 @@
         <v>58544</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>45870</v>
+        <v>45983</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>73885</v>
+        <v>74833</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0548417847934333</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04296977013738531</v>
+        <v>0.04307589071541366</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06921358636112018</v>
+        <v>0.07010092376046262</v>
       </c>
     </row>
     <row r="8">
@@ -2463,19 +2463,19 @@
         <v>1008955</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>993614</v>
+        <v>992666</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1021629</v>
+        <v>1021516</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9451582152065666</v>
+        <v>0.9451582152065667</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9307864136388799</v>
+        <v>0.9298990762395376</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9570302298626148</v>
+        <v>0.9569241092845865</v>
       </c>
     </row>
     <row r="9">
@@ -2525,19 +2525,19 @@
         <v>68492</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>53731</v>
+        <v>52508</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>89686</v>
+        <v>89157</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.0847735661963849</v>
+        <v>0.08477356619638488</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0665037366910297</v>
+        <v>0.06498947182517781</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1110049379122117</v>
+        <v>0.1103500945008627</v>
       </c>
     </row>
     <row r="11">
@@ -2554,19 +2554,19 @@
         <v>739451</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>718257</v>
+        <v>718786</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>754212</v>
+        <v>755435</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9152264338036152</v>
+        <v>0.915226433803615</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8889950620877883</v>
+        <v>0.8896499054991375</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9334962633089705</v>
+        <v>0.9350105281748223</v>
       </c>
     </row>
     <row r="12">
@@ -2616,19 +2616,19 @@
         <v>70473</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>55228</v>
+        <v>56350</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>87721</v>
+        <v>88504</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.06317707021032913</v>
+        <v>0.06317707021032914</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04950978676561629</v>
+        <v>0.05051566289162918</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07863873284824795</v>
+        <v>0.07934061215237188</v>
       </c>
     </row>
     <row r="14">
@@ -2645,19 +2645,19 @@
         <v>1045015</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1027767</v>
+        <v>1026984</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1060260</v>
+        <v>1059138</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9368229297896706</v>
+        <v>0.9368229297896711</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9213612671517523</v>
+        <v>0.9206593878476307</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.950490213234383</v>
+        <v>0.949484337108371</v>
       </c>
     </row>
     <row r="15">
@@ -2707,19 +2707,19 @@
         <v>228933</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>200026</v>
+        <v>199669</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>260858</v>
+        <v>260110</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06148073147974337</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05371776213085682</v>
+        <v>0.05362189258272029</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07005433430636625</v>
+        <v>0.06985351668594032</v>
       </c>
     </row>
     <row r="17">
@@ -2736,19 +2736,19 @@
         <v>3494719</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3462794</v>
+        <v>3463542</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3523626</v>
+        <v>3523983</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9385192685202566</v>
+        <v>0.9385192685202565</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9299456656936333</v>
+        <v>0.9301464833140596</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9462822378691428</v>
+        <v>0.9463781074172793</v>
       </c>
     </row>
     <row r="18">
